--- a/src/main/java/data/Auth.xlsx
+++ b/src/main/java/data/Auth.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="99">
   <si>
     <t>Login</t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>Data Expected</t>
+  </si>
+  <si>
+    <t>Message Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code Actual</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Data Actual</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t xml:space="preserve"> {
@@ -429,34 +444,7 @@
 }</t>
   </si>
   <si>
-    <t>Message Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Code Actual</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Data Actual</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>{"id":1,"first_name":"Ashtyn","last_name":"Bins","email":"manager_1@gmail.com","role_id":2,"role_name":"Manager","created_at":{"date":"2018-03-29 08:35:05.000000","timezone_type":3,"timezone":"UTC"},"updated_at":{"date":"2018-03-29 08:35:05.000000","timezone_type":3,"timezone":"UTC"}}</t>
-  </si>
-  <si>
-    <t>HTTP/1.1 200 OK</t>
-  </si>
-  <si>
-    <t>{"error":false,"data":{"id":1,"first_name":"Ashtyn","last_name":"Bins","email":"manager_1@gmail.com","role_id":2,"role_name":"Manager","created_at":{"date":"2018-03-29 08:35:05.000000","timezone_type":3,"timezone":"UTC"},"updated_at":{"date":"2018-03-29 08:35:05.000000","timezone_type":3,"timezone":"UTC"}},"message":"Request handled successfully"}</t>
+    <t>{"id":"1","first_name":"Ashtyn","last_name":"Bins","email":"manager_1@gmail.com","role_id":"2","role_name":"Manager"}</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1377,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1432,13 +1420,13 @@
         <v>91</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="K1" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>8</v>
@@ -1462,22 +1450,22 @@
         <v>89</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
